--- a/surya_etal_virus_evol_data_s1_sars_cov_2/sars_cov_2_lanfear_2020_december/sars_cov_2_2020_december_results_bic_table.xlsx
+++ b/surya_etal_virus_evol_data_s1_sars_cov_2/sars_cov_2_lanfear_2020_december/sars_cov_2_2020_december_results_bic_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadik\Google Drive\Operation\IZANAMI\2_publication\surya_etal_virus_evol_data_s1_sars_cov_2\sars_cov_2_lanfear_2020_december\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadik\Documents\GitHub\Covid_Analysis\surya_etal_virus_evol_data_s1_sars_cov_2\sars_cov_2_lanfear_2020_december\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C677E51B-E81F-49A0-B00A-23424E6928CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923F06BF-F64C-421C-B93C-F9571157CE34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,8 @@
   <cols>
     <col min="1" max="1" width="26.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
